--- a/tests/company.xlsx
+++ b/tests/company.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>employee_id</t>
   </si>
@@ -92,12 +92,15 @@
   </si>
   <si>
     <t>dob</t>
+  </si>
+  <si>
+    <t>salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,6 +231,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -263,6 +283,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +490,7 @@
     <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -466,8 +503,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -480,8 +520,11 @@
       <c r="D2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -494,8 +537,11 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -509,7 +555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -522,8 +568,11 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -536,8 +585,11 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -550,8 +602,11 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -564,8 +619,11 @@
       <c r="D8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -578,8 +636,11 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -593,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -606,9 +667,13 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
+      <c r="E11" s="1">
+        <v>78000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -617,7 +682,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
